--- a/results/compare.xlsx
+++ b/results/compare.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dominik\Documents\GitHub\master_arbeit\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E44064-56D8-468E-94CC-0A9719476948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1905" yWindow="1755" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -760,9 +766,6 @@
     <t xml:space="preserve">109-52 174-47 232-57 220-78 220-91 219-57 224-120 224-133 223-118 223-139 225-169 229-179 232-192 235-200 242-188 244-178 245-180 245-187 264-214 261-202 254-240 258-277 247-249 228-288 227-241 213-278 179-95 209-67 264-277 181-74 </t>
   </si>
   <si>
-    <t xml:space="preserve">164-137 136-105 136-83 148-35 102--1 107-34 95-63 121-89 32-119 162-96 152-46 192-90 182-66 213-93 100-195 93-164 92-150 356-130 128-151 158-173 118-209 133-232 130-269 154-298 104-283 152-303 172-277 176-310 99-344 180-126 184-82 194-38 196-50 200-69 213-63 192-57 197-74 189-38 183-60 </t>
-  </si>
-  <si>
     <t xml:space="preserve">70-5 106-28 125-48 136-68 139-90 201-86 188-70 150-106 141-130 434-131 84-134 120-153 196-177 193-190 184-198 172-212 169-233 180-275 93-86 139-76 204-89 181-247 189-269 202-238 146-297 117-347 204-260 </t>
   </si>
   <si>
@@ -1415,13 +1418,16 @@
   </si>
   <si>
     <t xml:space="preserve">152-28 171-71 194-88 196-118 196-130 192-173 260-198 205-220 201-234 201-252 312-250 204-226 290-258 208-346 223-81 222-116 218-79 187-55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">164-137 136-105 136-83 148-35 102-1 107-34 95-63 121-89 32-119 162-96 152-46 192-90 182-66 213-93 100-195 93-164 92-150 356-130 128-151 158-173 118-209 133-232 130-269 154-298 104-283 152-303 172-277 176-310 99-344 180-126 184-82 194-38 196-50 200-69 213-63 192-57 197-74 189-38 183-60 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1480,15 +1486,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1530,7 +1544,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1562,9 +1576,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1596,6 +1628,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1771,14 +1821,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="H202" sqref="H202"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1801,7 +1853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>16</v>
       </c>
@@ -1824,7 +1876,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>68</v>
       </c>
@@ -1847,7 +1899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>120</v>
       </c>
@@ -1870,7 +1922,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>172</v>
       </c>
@@ -1893,7 +1945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>224</v>
       </c>
@@ -1916,7 +1968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>276</v>
       </c>
@@ -1939,7 +1991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>328</v>
       </c>
@@ -1962,7 +2014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>380</v>
       </c>
@@ -1985,7 +2037,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>432</v>
       </c>
@@ -2008,7 +2060,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>484</v>
       </c>
@@ -2031,7 +2083,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -2054,7 +2106,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>35</v>
       </c>
@@ -2077,7 +2129,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>57</v>
       </c>
@@ -2100,7 +2152,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>79</v>
       </c>
@@ -2123,7 +2175,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>101</v>
       </c>
@@ -2146,7 +2198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>123</v>
       </c>
@@ -2169,7 +2221,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>145</v>
       </c>
@@ -2192,7 +2244,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>167</v>
       </c>
@@ -2215,7 +2267,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>189</v>
       </c>
@@ -2238,7 +2290,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>211</v>
       </c>
@@ -2261,7 +2313,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>9</v>
       </c>
@@ -2284,7 +2336,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>61</v>
       </c>
@@ -2307,7 +2359,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>113</v>
       </c>
@@ -2330,7 +2382,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>165</v>
       </c>
@@ -2353,7 +2405,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>217</v>
       </c>
@@ -2376,7 +2428,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>269</v>
       </c>
@@ -2399,7 +2451,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>321</v>
       </c>
@@ -2422,7 +2474,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>373</v>
       </c>
@@ -2445,7 +2497,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>425</v>
       </c>
@@ -2468,7 +2520,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>477</v>
       </c>
@@ -2491,7 +2543,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -2514,7 +2566,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2537,7 +2589,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>53</v>
       </c>
@@ -2560,7 +2612,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>75</v>
       </c>
@@ -2583,7 +2635,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>97</v>
       </c>
@@ -2606,7 +2658,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>119</v>
       </c>
@@ -2629,7 +2681,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>141</v>
       </c>
@@ -2652,7 +2704,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>163</v>
       </c>
@@ -2675,7 +2727,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>185</v>
       </c>
@@ -2698,7 +2750,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>207</v>
       </c>
@@ -2721,7 +2773,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>28</v>
       </c>
@@ -2744,7 +2796,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>80</v>
       </c>
@@ -2767,7 +2819,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>132</v>
       </c>
@@ -2790,7 +2842,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>184</v>
       </c>
@@ -2813,7 +2865,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>236</v>
       </c>
@@ -2836,7 +2888,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>288</v>
       </c>
@@ -2859,7 +2911,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>340</v>
       </c>
@@ -2882,7 +2934,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>392</v>
       </c>
@@ -2905,7 +2957,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>444</v>
       </c>
@@ -2928,7 +2980,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>496</v>
       </c>
@@ -2951,7 +3003,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>18</v>
       </c>
@@ -2974,7 +3026,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40</v>
       </c>
@@ -2997,7 +3049,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>62</v>
       </c>
@@ -3020,7 +3072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>84</v>
       </c>
@@ -3043,7 +3095,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>106</v>
       </c>
@@ -3066,7 +3118,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>128</v>
       </c>
@@ -3089,7 +3141,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>150</v>
       </c>
@@ -3112,7 +3164,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>172</v>
       </c>
@@ -3135,7 +3187,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>194</v>
       </c>
@@ -3158,7 +3210,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>216</v>
       </c>
@@ -3181,7 +3233,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>41</v>
       </c>
@@ -3204,7 +3256,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>93</v>
       </c>
@@ -3227,7 +3279,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>145</v>
       </c>
@@ -3250,7 +3302,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>197</v>
       </c>
@@ -3273,7 +3325,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>249</v>
       </c>
@@ -3296,7 +3348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>301</v>
       </c>
@@ -3319,7 +3371,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>353</v>
       </c>
@@ -3342,7 +3394,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>405</v>
       </c>
@@ -3365,7 +3417,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>457</v>
       </c>
@@ -3388,7 +3440,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>509</v>
       </c>
@@ -3411,7 +3463,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>17</v>
       </c>
@@ -3434,7 +3486,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>39</v>
       </c>
@@ -3457,7 +3509,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>61</v>
       </c>
@@ -3480,7 +3532,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>83</v>
       </c>
@@ -3503,7 +3555,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>105</v>
       </c>
@@ -3526,7 +3578,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>127</v>
       </c>
@@ -3549,7 +3601,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>149</v>
       </c>
@@ -3572,7 +3624,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>171</v>
       </c>
@@ -3595,7 +3647,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>193</v>
       </c>
@@ -3618,7 +3670,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>215</v>
       </c>
@@ -3641,7 +3693,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -3664,7 +3716,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>52</v>
       </c>
@@ -3687,7 +3739,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>104</v>
       </c>
@@ -3710,7 +3762,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>156</v>
       </c>
@@ -3733,7 +3785,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>208</v>
       </c>
@@ -3756,7 +3808,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>260</v>
       </c>
@@ -3779,7 +3831,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>312</v>
       </c>
@@ -3802,7 +3854,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>364</v>
       </c>
@@ -3825,7 +3877,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>416</v>
       </c>
@@ -3848,7 +3900,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>468</v>
       </c>
@@ -3871,7 +3923,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>10</v>
       </c>
@@ -3894,7 +3946,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>32</v>
       </c>
@@ -3917,7 +3969,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>54</v>
       </c>
@@ -3940,7 +3992,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>76</v>
       </c>
@@ -3963,7 +4015,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>98</v>
       </c>
@@ -3986,7 +4038,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>120</v>
       </c>
@@ -4009,7 +4061,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>142</v>
       </c>
@@ -4032,7 +4084,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>164</v>
       </c>
@@ -4055,7 +4107,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>186</v>
       </c>
@@ -4078,7 +4130,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>208</v>
       </c>
@@ -4101,7 +4153,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>38</v>
       </c>
@@ -4124,7 +4176,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>90</v>
       </c>
@@ -4147,7 +4199,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>142</v>
       </c>
@@ -4170,7 +4222,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>194</v>
       </c>
@@ -4193,7 +4245,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>246</v>
       </c>
@@ -4216,7 +4268,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>298</v>
       </c>
@@ -4239,7 +4291,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>350</v>
       </c>
@@ -4262,7 +4314,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>402</v>
       </c>
@@ -4285,7 +4337,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>454</v>
       </c>
@@ -4308,7 +4360,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>506</v>
       </c>
@@ -4331,7 +4383,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>11</v>
       </c>
@@ -4354,7 +4406,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>33</v>
       </c>
@@ -4377,7 +4429,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>55</v>
       </c>
@@ -4400,7 +4452,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>77</v>
       </c>
@@ -4423,7 +4475,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>99</v>
       </c>
@@ -4446,7 +4498,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>121</v>
       </c>
@@ -4469,7 +4521,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>143</v>
       </c>
@@ -4492,7 +4544,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>165</v>
       </c>
@@ -4515,7 +4567,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>187</v>
       </c>
@@ -4538,7 +4590,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>209</v>
       </c>
@@ -4561,7 +4613,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>4</v>
       </c>
@@ -4584,7 +4636,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>56</v>
       </c>
@@ -4607,7 +4659,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>108</v>
       </c>
@@ -4630,7 +4682,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>160</v>
       </c>
@@ -4653,7 +4705,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>212</v>
       </c>
@@ -4676,7 +4728,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>264</v>
       </c>
@@ -4699,7 +4751,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>316</v>
       </c>
@@ -4722,7 +4774,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>368</v>
       </c>
@@ -4745,7 +4797,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>420</v>
       </c>
@@ -4768,7 +4820,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>472</v>
       </c>
@@ -4791,7 +4843,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>16</v>
       </c>
@@ -4814,7 +4866,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>38</v>
       </c>
@@ -4837,7 +4889,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>60</v>
       </c>
@@ -4860,7 +4912,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>82</v>
       </c>
@@ -4883,7 +4935,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>104</v>
       </c>
@@ -4906,7 +4958,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>126</v>
       </c>
@@ -4929,7 +4981,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>148</v>
       </c>
@@ -4952,7 +5004,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>170</v>
       </c>
@@ -4975,7 +5027,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>192</v>
       </c>
@@ -4998,7 +5050,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>214</v>
       </c>
@@ -5021,7 +5073,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>42</v>
       </c>
@@ -5044,7 +5096,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>94</v>
       </c>
@@ -5067,7 +5119,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>146</v>
       </c>
@@ -5090,7 +5142,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>198</v>
       </c>
@@ -5113,7 +5165,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>250</v>
       </c>
@@ -5136,7 +5188,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>302</v>
       </c>
@@ -5159,7 +5211,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>354</v>
       </c>
@@ -5182,7 +5234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>406</v>
       </c>
@@ -5205,7 +5257,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>458</v>
       </c>
@@ -5228,7 +5280,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>510</v>
       </c>
@@ -5251,7 +5303,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>15</v>
       </c>
@@ -5274,7 +5326,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>37</v>
       </c>
@@ -5297,7 +5349,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>59</v>
       </c>
@@ -5320,7 +5372,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>81</v>
       </c>
@@ -5343,7 +5395,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>103</v>
       </c>
@@ -5366,7 +5418,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>125</v>
       </c>
@@ -5389,7 +5441,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>147</v>
       </c>
@@ -5412,7 +5464,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>169</v>
       </c>
@@ -5435,7 +5487,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>191</v>
       </c>
@@ -5458,7 +5510,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>213</v>
       </c>
@@ -5481,7 +5533,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>36</v>
       </c>
@@ -5504,7 +5556,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>88</v>
       </c>
@@ -5527,7 +5579,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>140</v>
       </c>
@@ -5550,7 +5602,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>192</v>
       </c>
@@ -5573,7 +5625,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>244</v>
       </c>
@@ -5596,7 +5648,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>296</v>
       </c>
@@ -5619,7 +5671,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>348</v>
       </c>
@@ -5642,7 +5694,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>400</v>
       </c>
@@ -5665,7 +5717,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>452</v>
       </c>
@@ -5688,7 +5740,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>504</v>
       </c>
@@ -5711,7 +5763,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>14</v>
       </c>
@@ -5734,7 +5786,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>36</v>
       </c>
@@ -5757,7 +5809,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>58</v>
       </c>
@@ -5780,7 +5832,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>80</v>
       </c>
@@ -5803,7 +5855,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>102</v>
       </c>
@@ -5826,7 +5878,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>124</v>
       </c>
@@ -5849,7 +5901,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>146</v>
       </c>
@@ -5872,7 +5924,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>168</v>
       </c>
@@ -5895,7 +5947,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>190</v>
       </c>
@@ -5918,7 +5970,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>212</v>
       </c>
@@ -5941,7 +5993,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>50</v>
       </c>
@@ -5964,7 +6016,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>102</v>
       </c>
@@ -5987,7 +6039,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>154</v>
       </c>
@@ -6010,7 +6062,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>206</v>
       </c>
@@ -6033,7 +6085,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>258</v>
       </c>
@@ -6056,7 +6108,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>310</v>
       </c>
@@ -6079,7 +6131,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>362</v>
       </c>
@@ -6102,7 +6154,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>414</v>
       </c>
@@ -6125,7 +6177,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>466</v>
       </c>
@@ -6148,7 +6200,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>518</v>
       </c>
@@ -6171,7 +6223,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>1</v>
       </c>
@@ -6194,7 +6246,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>23</v>
       </c>
@@ -6217,7 +6269,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>45</v>
       </c>
@@ -6240,7 +6292,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>67</v>
       </c>
@@ -6263,7 +6315,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>89</v>
       </c>
@@ -6286,7 +6338,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>111</v>
       </c>
@@ -6309,7 +6361,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>133</v>
       </c>
@@ -6332,7 +6384,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>155</v>
       </c>
@@ -6355,7 +6407,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>177</v>
       </c>
@@ -6378,7 +6430,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6401,7 +6453,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44</v>
       </c>
@@ -6421,10 +6473,10 @@
         <v>1</v>
       </c>
       <c r="H202" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>96</v>
       </c>
@@ -6444,10 +6496,10 @@
         <v>1</v>
       </c>
       <c r="H203" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>148</v>
       </c>
@@ -6467,10 +6519,10 @@
         <v>1</v>
       </c>
       <c r="H204" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>200</v>
       </c>
@@ -6490,10 +6542,10 @@
         <v>1</v>
       </c>
       <c r="H205" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>252</v>
       </c>
@@ -6513,10 +6565,10 @@
         <v>1</v>
       </c>
       <c r="H206" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>304</v>
       </c>
@@ -6536,10 +6588,10 @@
         <v>1</v>
       </c>
       <c r="H207" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>356</v>
       </c>
@@ -6559,10 +6611,10 @@
         <v>1</v>
       </c>
       <c r="H208" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>408</v>
       </c>
@@ -6582,10 +6634,10 @@
         <v>1</v>
       </c>
       <c r="H209" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>460</v>
       </c>
@@ -6605,10 +6657,10 @@
         <v>1</v>
       </c>
       <c r="H210" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>512</v>
       </c>
@@ -6628,10 +6680,10 @@
         <v>1</v>
       </c>
       <c r="H211" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>12</v>
       </c>
@@ -6651,10 +6703,10 @@
         <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>34</v>
       </c>
@@ -6674,10 +6726,10 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>56</v>
       </c>
@@ -6697,10 +6749,10 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>78</v>
       </c>
@@ -6720,10 +6772,10 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>100</v>
       </c>
@@ -6743,10 +6795,10 @@
         <v>1</v>
       </c>
       <c r="H216" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>122</v>
       </c>
@@ -6766,10 +6818,10 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>144</v>
       </c>
@@ -6789,10 +6841,10 @@
         <v>1</v>
       </c>
       <c r="H218" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>166</v>
       </c>
@@ -6812,10 +6864,10 @@
         <v>1</v>
       </c>
       <c r="H219" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>188</v>
       </c>
@@ -6835,10 +6887,10 @@
         <v>1</v>
       </c>
       <c r="H220" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>210</v>
       </c>
@@ -6858,10 +6910,10 @@
         <v>1</v>
       </c>
       <c r="H221" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>17</v>
       </c>
@@ -6881,10 +6933,10 @@
         <v>1</v>
       </c>
       <c r="H222" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>69</v>
       </c>
@@ -6904,10 +6956,10 @@
         <v>2</v>
       </c>
       <c r="H223" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>121</v>
       </c>
@@ -6927,10 +6979,10 @@
         <v>1</v>
       </c>
       <c r="H224" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>173</v>
       </c>
@@ -6950,10 +7002,10 @@
         <v>1</v>
       </c>
       <c r="H225" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -6973,10 +7025,10 @@
         <v>1</v>
       </c>
       <c r="H226" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>277</v>
       </c>
@@ -6996,10 +7048,10 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>329</v>
       </c>
@@ -7019,10 +7071,10 @@
         <v>1</v>
       </c>
       <c r="H228" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>381</v>
       </c>
@@ -7042,10 +7094,10 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>433</v>
       </c>
@@ -7065,10 +7117,10 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>485</v>
       </c>
@@ -7088,10 +7140,10 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>8</v>
       </c>
@@ -7111,10 +7163,10 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>30</v>
       </c>
@@ -7134,10 +7186,10 @@
         <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>52</v>
       </c>
@@ -7157,10 +7209,10 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>74</v>
       </c>
@@ -7180,10 +7232,10 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>96</v>
       </c>
@@ -7203,10 +7255,10 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>118</v>
       </c>
@@ -7226,10 +7278,10 @@
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>140</v>
       </c>
@@ -7249,10 +7301,10 @@
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>162</v>
       </c>
@@ -7272,10 +7324,10 @@
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>184</v>
       </c>
@@ -7295,10 +7347,10 @@
         <v>1</v>
       </c>
       <c r="H240" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>206</v>
       </c>
@@ -7318,10 +7370,10 @@
         <v>1</v>
       </c>
       <c r="H241" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>48</v>
       </c>
@@ -7341,10 +7393,10 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>100</v>
       </c>
@@ -7364,10 +7416,10 @@
         <v>2</v>
       </c>
       <c r="H243" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>152</v>
       </c>
@@ -7387,10 +7439,10 @@
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>204</v>
       </c>
@@ -7410,10 +7462,10 @@
         <v>2</v>
       </c>
       <c r="H245" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>256</v>
       </c>
@@ -7433,10 +7485,10 @@
         <v>2</v>
       </c>
       <c r="H246" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>308</v>
       </c>
@@ -7456,10 +7508,10 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>360</v>
       </c>
@@ -7479,10 +7531,10 @@
         <v>1</v>
       </c>
       <c r="H248" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>412</v>
       </c>
@@ -7502,10 +7554,10 @@
         <v>1</v>
       </c>
       <c r="H249" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>464</v>
       </c>
@@ -7525,10 +7577,10 @@
         <v>3</v>
       </c>
       <c r="H250" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>516</v>
       </c>
@@ -7548,10 +7600,10 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>19</v>
       </c>
@@ -7571,10 +7623,10 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>41</v>
       </c>
@@ -7594,10 +7646,10 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>63</v>
       </c>
@@ -7617,10 +7669,10 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>85</v>
       </c>
@@ -7640,10 +7692,10 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>107</v>
       </c>
@@ -7663,10 +7715,10 @@
         <v>2</v>
       </c>
       <c r="H256" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>129</v>
       </c>
@@ -7686,10 +7738,10 @@
         <v>1</v>
       </c>
       <c r="H257" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>151</v>
       </c>
@@ -7709,10 +7761,10 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>173</v>
       </c>
@@ -7732,10 +7784,10 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>195</v>
       </c>
@@ -7755,10 +7807,10 @@
         <v>3</v>
       </c>
       <c r="H260" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>217</v>
       </c>
@@ -7778,10 +7830,10 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>47</v>
       </c>
@@ -7801,10 +7853,10 @@
         <v>2</v>
       </c>
       <c r="H262" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>99</v>
       </c>
@@ -7824,10 +7876,10 @@
         <v>2</v>
       </c>
       <c r="H263" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>151</v>
       </c>
@@ -7847,10 +7899,10 @@
         <v>1</v>
       </c>
       <c r="H264" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>203</v>
       </c>
@@ -7870,10 +7922,10 @@
         <v>2</v>
       </c>
       <c r="H265" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>255</v>
       </c>
@@ -7893,10 +7945,10 @@
         <v>3</v>
       </c>
       <c r="H266" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>307</v>
       </c>
@@ -7916,10 +7968,10 @@
         <v>2</v>
       </c>
       <c r="H267" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>359</v>
       </c>
@@ -7939,10 +7991,10 @@
         <v>2</v>
       </c>
       <c r="H268" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>411</v>
       </c>
@@ -7962,10 +8014,10 @@
         <v>2</v>
       </c>
       <c r="H269" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>463</v>
       </c>
@@ -7985,10 +8037,10 @@
         <v>3</v>
       </c>
       <c r="H270" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>515</v>
       </c>
@@ -8008,10 +8060,10 @@
         <v>2</v>
       </c>
       <c r="H271" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>21</v>
       </c>
@@ -8031,10 +8083,10 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>43</v>
       </c>
@@ -8054,10 +8106,10 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>65</v>
       </c>
@@ -8077,10 +8129,10 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>87</v>
       </c>
@@ -8100,10 +8152,10 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>109</v>
       </c>
@@ -8123,10 +8175,10 @@
         <v>2</v>
       </c>
       <c r="H276" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>131</v>
       </c>
@@ -8146,10 +8198,10 @@
         <v>2</v>
       </c>
       <c r="H277" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>153</v>
       </c>
@@ -8169,10 +8221,10 @@
         <v>1</v>
       </c>
       <c r="H278" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>175</v>
       </c>
@@ -8192,10 +8244,10 @@
         <v>2</v>
       </c>
       <c r="H279" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>197</v>
       </c>
@@ -8215,10 +8267,10 @@
         <v>2</v>
       </c>
       <c r="H280" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>219</v>
       </c>
@@ -8238,10 +8290,10 @@
         <v>1</v>
       </c>
       <c r="H281" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>12</v>
       </c>
@@ -8261,10 +8313,10 @@
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>64</v>
       </c>
@@ -8284,10 +8336,10 @@
         <v>2</v>
       </c>
       <c r="H283" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>116</v>
       </c>
@@ -8307,10 +8359,10 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>168</v>
       </c>
@@ -8330,10 +8382,10 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>220</v>
       </c>
@@ -8353,10 +8405,10 @@
         <v>2</v>
       </c>
       <c r="H286" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>272</v>
       </c>
@@ -8376,10 +8428,10 @@
         <v>1</v>
       </c>
       <c r="H287" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>324</v>
       </c>
@@ -8399,10 +8451,10 @@
         <v>1</v>
       </c>
       <c r="H288" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>376</v>
       </c>
@@ -8422,10 +8474,10 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>428</v>
       </c>
@@ -8445,10 +8497,10 @@
         <v>2</v>
       </c>
       <c r="H290" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>480</v>
       </c>
@@ -8468,10 +8520,10 @@
         <v>1</v>
       </c>
       <c r="H291" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>7</v>
       </c>
@@ -8491,10 +8543,10 @@
         <v>1</v>
       </c>
       <c r="H292" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>29</v>
       </c>
@@ -8514,10 +8566,10 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>51</v>
       </c>
@@ -8537,10 +8589,10 @@
         <v>1</v>
       </c>
       <c r="H294" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>73</v>
       </c>
@@ -8560,10 +8612,10 @@
         <v>1</v>
       </c>
       <c r="H295" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>95</v>
       </c>
@@ -8583,10 +8635,10 @@
         <v>1</v>
       </c>
       <c r="H296" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="297" spans="1:8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>117</v>
       </c>
@@ -8606,10 +8658,10 @@
         <v>1</v>
       </c>
       <c r="H297" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>139</v>
       </c>
@@ -8629,10 +8681,10 @@
         <v>1</v>
       </c>
       <c r="H298" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>161</v>
       </c>
@@ -8652,10 +8704,10 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>183</v>
       </c>
@@ -8675,10 +8727,10 @@
         <v>1</v>
       </c>
       <c r="H300" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>205</v>
       </c>
@@ -8698,10 +8750,10 @@
         <v>1</v>
       </c>
       <c r="H301" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>5</v>
       </c>
@@ -8721,10 +8773,10 @@
         <v>1</v>
       </c>
       <c r="H302" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>57</v>
       </c>
@@ -8744,10 +8796,10 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>109</v>
       </c>
@@ -8767,10 +8819,10 @@
         <v>1</v>
       </c>
       <c r="H304" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>161</v>
       </c>
@@ -8790,10 +8842,10 @@
         <v>1</v>
       </c>
       <c r="H305" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>213</v>
       </c>
@@ -8813,10 +8865,10 @@
         <v>3</v>
       </c>
       <c r="H306" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>265</v>
       </c>
@@ -8836,10 +8888,10 @@
         <v>1</v>
       </c>
       <c r="H307" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>317</v>
       </c>
@@ -8859,10 +8911,10 @@
         <v>1</v>
       </c>
       <c r="H308" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>369</v>
       </c>
@@ -8882,10 +8934,10 @@
         <v>1</v>
       </c>
       <c r="H309" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>421</v>
       </c>
@@ -8905,10 +8957,10 @@
         <v>1</v>
       </c>
       <c r="H310" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>473</v>
       </c>
@@ -8928,10 +8980,10 @@
         <v>1</v>
       </c>
       <c r="H311" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>0</v>
       </c>
@@ -8951,10 +9003,10 @@
         <v>1</v>
       </c>
       <c r="H312" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>22</v>
       </c>
@@ -8974,10 +9026,10 @@
         <v>1</v>
       </c>
       <c r="H313" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>44</v>
       </c>
@@ -8997,10 +9049,10 @@
         <v>1</v>
       </c>
       <c r="H314" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>66</v>
       </c>
@@ -9020,10 +9072,10 @@
         <v>1</v>
       </c>
       <c r="H315" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>88</v>
       </c>
@@ -9043,10 +9095,10 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>110</v>
       </c>
@@ -9066,10 +9118,10 @@
         <v>1</v>
       </c>
       <c r="H317" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>132</v>
       </c>
@@ -9089,10 +9141,10 @@
         <v>1</v>
       </c>
       <c r="H318" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>154</v>
       </c>
@@ -9112,10 +9164,10 @@
         <v>1</v>
       </c>
       <c r="H319" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>176</v>
       </c>
@@ -9135,10 +9187,10 @@
         <v>2</v>
       </c>
       <c r="H320" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>198</v>
       </c>
@@ -9158,10 +9210,10 @@
         <v>1</v>
       </c>
       <c r="H321" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>31</v>
       </c>
@@ -9181,10 +9233,10 @@
         <v>1</v>
       </c>
       <c r="H322" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>83</v>
       </c>
@@ -9204,10 +9256,10 @@
         <v>2</v>
       </c>
       <c r="H323" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>135</v>
       </c>
@@ -9227,10 +9279,10 @@
         <v>1</v>
       </c>
       <c r="H324" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>187</v>
       </c>
@@ -9250,10 +9302,10 @@
         <v>1</v>
       </c>
       <c r="H325" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>239</v>
       </c>
@@ -9273,7 +9325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>291</v>
       </c>
@@ -9293,10 +9345,10 @@
         <v>2</v>
       </c>
       <c r="H327" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>343</v>
       </c>
@@ -9316,10 +9368,10 @@
         <v>1</v>
       </c>
       <c r="H328" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>395</v>
       </c>
@@ -9339,10 +9391,10 @@
         <v>1</v>
       </c>
       <c r="H329" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>447</v>
       </c>
@@ -9362,10 +9414,10 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>499</v>
       </c>
@@ -9385,10 +9437,10 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>6</v>
       </c>
@@ -9408,10 +9460,10 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>28</v>
       </c>
@@ -9431,10 +9483,10 @@
         <v>2</v>
       </c>
       <c r="H333" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>50</v>
       </c>
@@ -9454,10 +9506,10 @@
         <v>1</v>
       </c>
       <c r="H334" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>72</v>
       </c>
@@ -9477,10 +9529,10 @@
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>94</v>
       </c>
@@ -9500,10 +9552,10 @@
         <v>2</v>
       </c>
       <c r="H336" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>116</v>
       </c>
@@ -9523,10 +9575,10 @@
         <v>2</v>
       </c>
       <c r="H337" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>138</v>
       </c>
@@ -9546,10 +9598,10 @@
         <v>1</v>
       </c>
       <c r="H338" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="339" spans="1:8">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>160</v>
       </c>
@@ -9569,10 +9621,10 @@
         <v>2</v>
       </c>
       <c r="H339" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="340" spans="1:8">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>182</v>
       </c>
@@ -9592,10 +9644,10 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>204</v>
       </c>
@@ -9615,10 +9667,10 @@
         <v>1</v>
       </c>
       <c r="H341" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>13</v>
       </c>
@@ -9638,10 +9690,10 @@
         <v>2</v>
       </c>
       <c r="H342" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>65</v>
       </c>
@@ -9661,10 +9713,10 @@
         <v>3</v>
       </c>
       <c r="H343" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="344" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>117</v>
       </c>
@@ -9684,10 +9736,10 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>169</v>
       </c>
@@ -9707,10 +9759,10 @@
         <v>3</v>
       </c>
       <c r="H345" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>221</v>
       </c>
@@ -9730,10 +9782,10 @@
         <v>2</v>
       </c>
       <c r="H346" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>273</v>
       </c>
@@ -9753,10 +9805,10 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>325</v>
       </c>
@@ -9776,10 +9828,10 @@
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>377</v>
       </c>
@@ -9799,10 +9851,10 @@
         <v>1</v>
       </c>
       <c r="H349" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>429</v>
       </c>
@@ -9822,10 +9874,10 @@
         <v>3</v>
       </c>
       <c r="H350" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>481</v>
       </c>
@@ -9845,10 +9897,10 @@
         <v>2</v>
       </c>
       <c r="H351" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>2</v>
       </c>
@@ -9868,10 +9920,10 @@
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>24</v>
       </c>
@@ -9891,10 +9943,10 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>46</v>
       </c>
@@ -9914,10 +9966,10 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>68</v>
       </c>
@@ -9937,10 +9989,10 @@
         <v>2</v>
       </c>
       <c r="H355" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>90</v>
       </c>
@@ -9960,10 +10012,10 @@
         <v>2</v>
       </c>
       <c r="H356" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="357" spans="1:8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>112</v>
       </c>
@@ -9983,10 +10035,10 @@
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="358" spans="1:8">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>134</v>
       </c>
@@ -10006,10 +10058,10 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="359" spans="1:8">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>156</v>
       </c>
@@ -10029,10 +10081,10 @@
         <v>1</v>
       </c>
       <c r="H359" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="360" spans="1:8">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>178</v>
       </c>
@@ -10052,10 +10104,10 @@
         <v>2</v>
       </c>
       <c r="H360" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>200</v>
       </c>
@@ -10075,10 +10127,10 @@
         <v>3</v>
       </c>
       <c r="H361" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>32</v>
       </c>
@@ -10098,10 +10150,10 @@
         <v>1</v>
       </c>
       <c r="H362" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>84</v>
       </c>
@@ -10121,10 +10173,10 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>136</v>
       </c>
@@ -10144,10 +10196,10 @@
         <v>1</v>
       </c>
       <c r="H364" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>188</v>
       </c>
@@ -10167,10 +10219,10 @@
         <v>1</v>
       </c>
       <c r="H365" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>240</v>
       </c>
@@ -10190,10 +10242,10 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>292</v>
       </c>
@@ -10213,10 +10265,10 @@
         <v>2</v>
       </c>
       <c r="H367" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>344</v>
       </c>
@@ -10236,10 +10288,10 @@
         <v>1</v>
       </c>
       <c r="H368" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>396</v>
       </c>
@@ -10259,10 +10311,10 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>448</v>
       </c>
@@ -10282,10 +10334,10 @@
         <v>1</v>
       </c>
       <c r="H370" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>500</v>
       </c>
@@ -10305,10 +10357,10 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>3</v>
       </c>
@@ -10328,10 +10380,10 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="373" spans="1:8">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>25</v>
       </c>
@@ -10351,10 +10403,10 @@
         <v>1</v>
       </c>
       <c r="H373" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="374" spans="1:8">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>47</v>
       </c>
@@ -10374,10 +10426,10 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>69</v>
       </c>
@@ -10397,10 +10449,10 @@
         <v>1</v>
       </c>
       <c r="H375" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>91</v>
       </c>
@@ -10420,10 +10472,10 @@
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>113</v>
       </c>
@@ -10443,10 +10495,10 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>135</v>
       </c>
@@ -10466,10 +10518,10 @@
         <v>1</v>
       </c>
       <c r="H378" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>157</v>
       </c>
@@ -10489,10 +10541,10 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>179</v>
       </c>
@@ -10512,10 +10564,10 @@
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>201</v>
       </c>
@@ -10535,10 +10587,10 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>18</v>
       </c>
@@ -10558,10 +10610,10 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>70</v>
       </c>
@@ -10581,10 +10633,10 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>122</v>
       </c>
@@ -10604,10 +10656,10 @@
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>174</v>
       </c>
@@ -10627,10 +10679,10 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>226</v>
       </c>
@@ -10650,10 +10702,10 @@
         <v>2</v>
       </c>
       <c r="H386" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="387" spans="1:8">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>278</v>
       </c>
@@ -10673,10 +10725,10 @@
         <v>1</v>
       </c>
       <c r="H387" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>330</v>
       </c>
@@ -10696,10 +10748,10 @@
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>382</v>
       </c>
@@ -10719,10 +10771,10 @@
         <v>1</v>
       </c>
       <c r="H389" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>434</v>
       </c>
@@ -10742,10 +10794,10 @@
         <v>2</v>
       </c>
       <c r="H390" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>486</v>
       </c>
@@ -10765,10 +10817,10 @@
         <v>3</v>
       </c>
       <c r="H391" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>20</v>
       </c>
@@ -10788,10 +10840,10 @@
         <v>1</v>
       </c>
       <c r="H392" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>42</v>
       </c>
@@ -10811,10 +10863,10 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>64</v>
       </c>
@@ -10834,10 +10886,10 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>86</v>
       </c>
@@ -10857,10 +10909,10 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>108</v>
       </c>
@@ -10880,10 +10932,10 @@
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>130</v>
       </c>
@@ -10903,10 +10955,10 @@
         <v>3</v>
       </c>
       <c r="H397" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>152</v>
       </c>
@@ -10926,10 +10978,10 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="399" spans="1:8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>174</v>
       </c>
@@ -10949,10 +11001,10 @@
         <v>2</v>
       </c>
       <c r="H399" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>196</v>
       </c>
@@ -10972,10 +11024,10 @@
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>218</v>
       </c>
@@ -10995,10 +11047,10 @@
         <v>1</v>
       </c>
       <c r="H401" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="402" spans="1:8">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>34</v>
       </c>
@@ -11018,10 +11070,10 @@
         <v>1</v>
       </c>
       <c r="H402" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>86</v>
       </c>
@@ -11041,10 +11093,10 @@
         <v>2</v>
       </c>
       <c r="H403" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="404" spans="1:8">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>138</v>
       </c>
@@ -11064,10 +11116,10 @@
         <v>1</v>
       </c>
       <c r="H404" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>190</v>
       </c>
@@ -11087,10 +11139,10 @@
         <v>2</v>
       </c>
       <c r="H405" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>242</v>
       </c>
@@ -11110,10 +11162,10 @@
         <v>1</v>
       </c>
       <c r="H406" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>294</v>
       </c>
@@ -11133,10 +11185,10 @@
         <v>1</v>
       </c>
       <c r="H407" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>346</v>
       </c>
@@ -11156,10 +11208,10 @@
         <v>1</v>
       </c>
       <c r="H408" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>398</v>
       </c>
@@ -11179,10 +11231,10 @@
         <v>1</v>
       </c>
       <c r="H409" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>450</v>
       </c>
@@ -11202,10 +11254,10 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>502</v>
       </c>
@@ -11225,10 +11277,10 @@
         <v>1</v>
       </c>
       <c r="H411" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>4</v>
       </c>
@@ -11248,10 +11300,10 @@
         <v>1</v>
       </c>
       <c r="H412" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>26</v>
       </c>
@@ -11271,10 +11323,10 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>48</v>
       </c>
@@ -11294,10 +11346,10 @@
         <v>1</v>
       </c>
       <c r="H414" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>70</v>
       </c>
@@ -11317,10 +11369,10 @@
         <v>1</v>
       </c>
       <c r="H415" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>92</v>
       </c>
@@ -11340,10 +11392,10 @@
         <v>1</v>
       </c>
       <c r="H416" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>114</v>
       </c>
@@ -11363,10 +11415,10 @@
         <v>1</v>
       </c>
       <c r="H417" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="418" spans="1:8">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>136</v>
       </c>
@@ -11386,10 +11438,10 @@
         <v>1</v>
       </c>
       <c r="H418" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="419" spans="1:8">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>158</v>
       </c>
@@ -11409,10 +11461,10 @@
         <v>1</v>
       </c>
       <c r="H419" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>180</v>
       </c>
@@ -11432,10 +11484,10 @@
         <v>2</v>
       </c>
       <c r="H420" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>202</v>
       </c>
@@ -11455,7 +11507,7 @@
         <v>1</v>
       </c>
       <c r="H421" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
